--- a/Use-Case-Bewertung.xlsx
+++ b/Use-Case-Bewertung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelgussmagg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelgussmagg/Documents/Studium/Semester 3/OAD/Übung/Abgabe_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{52D327F9-BBC5-444C-8754-B1C18E0A298E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B7F6E894-285E-4EF5-82B3-6C8475AA4C97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493447FC-0FB1-2945-BB5D-B18FB7EA3B51}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16140" xr2:uid="{B3B24640-5E8E-4A4C-BADB-C9E748816775}"/>
   </bookViews>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Use Case</t>
   </si>
@@ -95,9 +90,6 @@
     <t>Objekte suchen</t>
   </si>
   <si>
-    <t>Empfehlungen erstellen</t>
-  </si>
-  <si>
     <t>Datenbank auswerten</t>
   </si>
   <si>
@@ -111,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">ein Use Case der in dieser Iteration realisiert werden muss </t>
+  </si>
+  <si>
+    <t>Statistiken anzeigen</t>
+  </si>
+  <si>
+    <t>Empfehlungen erhalten</t>
   </si>
 </sst>
 </file>
@@ -179,12 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,368 +502,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D619E5-58D0-0343-A702-97B3D7E0E875}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{5278CE1E-FBD7-50FF-B733-C1F4A2BAA5D0}">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="20">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:10" ht="20">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:10" ht="20">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:10" ht="20">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:10" ht="20">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3"/>
+    <row r="14" spans="1:10" ht="20">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:10" ht="20">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5">
+    <row r="16" spans="1:10" ht="20">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -880,24 +887,24 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5">
+    <row r="17" spans="1:10" ht="20">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5">
+    <row r="18" spans="1:10" ht="20">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -905,14 +912,14 @@
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5">
+    <row r="19" spans="1:10" ht="20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -920,14 +927,14 @@
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5">
+    <row r="20" spans="1:10" ht="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -937,7 +944,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5">
+    <row r="21" spans="1:10" ht="20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -949,7 +956,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5">
+    <row r="22" spans="1:10" ht="20">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -961,7 +968,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5">
+    <row r="23" spans="1:10" ht="20">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -973,7 +980,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5">
+    <row r="24" spans="1:10" ht="20">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -985,7 +992,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5">
+    <row r="25" spans="1:10" ht="20">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -997,7 +1004,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5">
+    <row r="26" spans="1:10" ht="20">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1009,7 +1016,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5">
+    <row r="27" spans="1:10" ht="20">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1021,7 +1028,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5">
+    <row r="28" spans="1:10" ht="20">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1033,7 +1040,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5">
+    <row r="29" spans="1:10" ht="20">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1045,7 +1052,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5">
+    <row r="30" spans="1:10" ht="20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1057,7 +1064,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5">
+    <row r="31" spans="1:10" ht="20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
